--- a/blueprints/modular/dininghall.xlsx
+++ b/blueprints/modular/dininghall.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="10">
   <si>
     <t>i</t>
   </si>
@@ -955,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>2</v>
@@ -1601,7 +1601,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="17.25" customHeight="1"/>
@@ -1670,7 +1670,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1902,7 +1904,9 @@
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1940,9 @@
       <c r="M9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="O9" s="2" t="s">
         <v>2</v>
       </c>
@@ -2168,7 +2174,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2309,7 +2317,9 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -2540,7 +2550,9 @@
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
@@ -2574,7 +2586,9 @@
       <c r="M9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="O9" s="2" t="s">
         <v>2</v>
       </c>
@@ -2806,7 +2820,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
